--- a/Exc2/furps_table_v1.xlsx
+++ b/Exc2/furps_table_v1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t xml:space="preserve">Код</t>
   </si>
@@ -59,119 +59,145 @@
   </si>
   <si>
     <t xml:space="preserve">Необходимо реализовать функционал Уведомления без участия подрядчиков </t>
-  </si>
-  <si>
-    <t xml:space="preserve">U</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Удобство использования (Usability)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Максимально удобный интерфейс для пользователя.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Интуитивно понятный интерфейс для сохранения лояльности клиента</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Максимально быстрый отклик на все действия.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Должен занимать миллисекунды чтобы сохранить лояльность клиентов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Надёжность (Reliability)</t>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Доступность систем 99.9%%</t>
+      <t xml:space="preserve">Сотрудник отделения может подать заявку на депозит</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">, при посещении клиентом </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">.</t>
+      <t xml:space="preserve">отделения.</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Все сервисы должны работать 24 на 7 и быть доступны в 99,9%% случаев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Распределенные системы по нескольким зонам доступности.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Необходимо распределить системы по нескольким зонам доступности</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Производительность (Performance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Горизонтальное масштабирование систем.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Необходимо добавить возможность масштабировать горизонтально системы в зависимости от нагрузок</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Быстрый отклик на взаимодействие.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Необходимо проработать механизмы CDN и георезервирования</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Поддерживаемость (Supportability)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пере использование существующих технологий.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Необходимо максимально пере использовать технологии которые уже используются в банке</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Повышение экспертизы персонала разработки.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Необходимо для дальнейшего бесшовного развития системы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+ Ограничения (Restricitions)</t>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">Рефракторинг системы</t>
+      <t xml:space="preserve">Сотрудник отделения</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">.</t>
+      <t xml:space="preserve"> может  подать заявку на депозит в отделении через АБС при посещении клиентом отделения.</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Удобство использования (Usability)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Максимально удобный интерфейс для пользователя.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Интуитивно понятный интерфейс для сохранения лояльности клиента</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Максимально быстрый отклик на все действия.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Должен занимать миллисекунды чтобы сохранить лояльность клиентов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Надёжность (Reliability)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Доступность систем 99.9%%.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Все сервисы должны работать 24 на 7 и быть доступны в 99,9%% случаев</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Распределенные системы по нескольким зонам доступности.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Необходимо распределить системы по нескольким зонам доступности</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Производительность (Performance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Горизонтальное масштабирование систем.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Необходимо добавить возможность масштабировать горизонтально системы в зависимости от нагрузок</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отклик по всем операциям должен быть максимально быстрым и занимать миллисекунды.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нужно исправить проблемы со скоростью загрузки справочных данных</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Быстрый отклик на взаимодействие.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Необходимо проработать механизмы CDN и георезервирования</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поддерживаемость (Supportability)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пере использование существующих технологий.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Необходимо максимально пере использовать технологии которые уже используются в банке</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Повышение экспертизы персонала разработки.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Необходимо для дальнейшего бесшовного развития системы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ Ограничения (Restricitions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рефракторинг системы.</t>
   </si>
   <si>
     <t xml:space="preserve">Необходимо в дальнейшем перейти на микро-сервисную архитектуру для возможности эффективного масштабирования и геолоцирования.</t>
@@ -187,7 +213,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -237,13 +263,8 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="0"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,13 +280,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.7999"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFEEEEEE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.25"/>
         <bgColor rgb="FF666699"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEEEEE"/>
+        <bgColor rgb="FFEDEDED"/>
       </patternFill>
     </fill>
   </fills>
@@ -327,57 +354,73 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -409,8 +452,8 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFEEEEEE"/>
       <rgbColor rgb="FFEDEDED"/>
-      <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
@@ -629,222 +672,240 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="44.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="35.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="44.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="2"/>
-      <c r="C5" s="4" t="s">
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="69.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="3"/>
+      <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="44" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="6"/>
-      <c r="C6" s="7" t="s">
+    <row r="6" customFormat="false" ht="66.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="61.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="6"/>
-      <c r="C7" s="7" t="s">
+    <row r="7" customFormat="false" ht="72.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="7"/>
+      <c r="C7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="61.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="6"/>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="2" t="s">
+    <row r="9" customFormat="false" ht="61.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="7"/>
+      <c r="C9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="2"/>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="C10" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="6"/>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="2"/>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="6"/>
-      <c r="C14" s="4" t="s">
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" customFormat="false" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="3"/>
+      <c r="C14" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="2" t="s">
+    <row r="15" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="7"/>
+      <c r="C15" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="2"/>
-      <c r="C16" s="8" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="6"/>
-      <c r="C17" s="4" t="s">
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" customFormat="false" ht="54.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="3"/>
+      <c r="C17" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="2" t="s">
+    <row r="18" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="3"/>
+      <c r="C18" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="2"/>
-      <c r="C19" s="8" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="46.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="7"/>
+      <c r="C19" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="6"/>
+      <c r="B20" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="C20" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="2" t="s">
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" customFormat="false" ht="45.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="3"/>
+      <c r="C21" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" customFormat="false" ht="55.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="12" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B22" s="7"/>
+      <c r="C22" s="14" t="s">
         <v>39</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="43.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11"/>
-      <c r="B23" s="6"/>
+    <row r="23" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B23" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="C23" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" customFormat="false" ht="64.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="16"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="16"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C23:D23"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
